--- a/src/test/resources/case/addEducationTest.xlsx
+++ b/src/test/resources/case/addEducationTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -79,14 +79,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>nchr.release.microfastup.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/nchr/personresume/education</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>设置教育背景</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -180,6 +172,14 @@
   </si>
   <si>
     <t>2013-08-29T15:50:56+08:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/personresume/education</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nchr.release.microfastup.com/nchr</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -510,8 +510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -520,7 +520,7 @@
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -546,10 +546,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
@@ -558,10 +558,10 @@
         <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -575,7 +575,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -616,71 +616,71 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -708,31 +708,31 @@
         <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
